--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-11.15331391415258</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.63570845440514</v>
+        <v>-21.64650827057416</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0290457245002772</v>
+        <v>-0.04049577858259201</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.980025278709107</v>
+        <v>-8.955541132319597</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.75348971352529</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.77847723293279</v>
+        <v>-21.79053841287347</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1631365158391535</v>
+        <v>-0.1747674631755441</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.478623401458911</v>
+        <v>-8.458676253441897</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.3173348124178</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.94704041169028</v>
+        <v>-21.95938515402925</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3312645729854916</v>
+        <v>-0.3405145739776947</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.371994161691495</v>
+        <v>-8.352765697683919</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.76264268094863</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.06423968430397</v>
+        <v>-22.07594396674337</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3657125153697743</v>
+        <v>-0.372342008681311</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.819008372988479</v>
+        <v>-7.806238287052098</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.08871462020107</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.98330217562219</v>
+        <v>-21.99446866730623</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4889057104022972</v>
+        <v>-0.4950951930958116</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.125297410628184</v>
+        <v>-7.112458878595665</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.27118643318396</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.25139086716948</v>
+        <v>-22.26252802481231</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6442539035985198</v>
+        <v>-0.6500913777976162</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.520414814032866</v>
+        <v>-6.5119128310913</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.30972766265187</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.63712373095533</v>
+        <v>-22.648964905587</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.814782463116513</v>
+        <v>-0.8207812745422177</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.091746691941763</v>
+        <v>-6.087072801376992</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.19066469184142</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.89558107897479</v>
+        <v>-22.9103556577266</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9541338258441898</v>
+        <v>-0.957057451950605</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.759308892012148</v>
+        <v>-5.756003923370113</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.90708992890979</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.33227695034137</v>
+        <v>-23.34928580523136</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.050193032765335</v>
+        <v>-1.054089571238266</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.452396596934695</v>
+        <v>-5.452425930975896</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.46108243149386</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.73191903866359</v>
+        <v>-23.75117683671237</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.31889285017098</v>
+        <v>-1.321107570281693</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.067108632773729</v>
+        <v>-5.063720551014956</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.8522054086538</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.19426264005401</v>
+        <v>-24.21424401111909</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.244526166718337</v>
+        <v>-1.244340384457394</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.915867205345714</v>
+        <v>-4.911203092794677</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.07912158183036</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.7690485103766</v>
+        <v>-24.79238374015238</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.178651688193525</v>
+        <v>-1.17856368606992</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.858480042741867</v>
+        <v>-4.850515850555662</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.16373809703577</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.3702985748698</v>
+        <v>-25.39292489864988</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.116302183619759</v>
+        <v>-1.114933261697022</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.738425590117903</v>
+        <v>-4.727156429289664</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.123886866854937</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.97452604454495</v>
+        <v>-26.00036933484346</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.07523941494454</v>
+        <v>-1.073753156856998</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.762127495408707</v>
+        <v>-4.750921891669738</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.978331310386319</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.74185567230725</v>
+        <v>-26.77049547453364</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9873399604842762</v>
+        <v>-0.983550980162417</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.731087190810664</v>
+        <v>-4.715887268461425</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.770427758722812</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.49911883493057</v>
+        <v>-27.52641416026856</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8621324946225843</v>
+        <v>-0.8588128589599491</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.766190260115113</v>
+        <v>-4.750613884237122</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.536092314627015</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.39075146228419</v>
+        <v>-28.4166900882166</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6918434964410698</v>
+        <v>-0.6880740721466784</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.023073347923425</v>
+        <v>-5.009257014517524</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.306077143009798</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.03059534698481</v>
+        <v>-29.05902736641936</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4407147697151166</v>
+        <v>-0.4370431255580635</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.334488418325307</v>
+        <v>-5.317885351005263</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.128639835006755</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.45508581270814</v>
+        <v>-29.48249847421093</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2371267457630443</v>
+        <v>-0.2334551016059912</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.662433220944227</v>
+        <v>-5.643170533888583</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.037315485063215</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.05587386605242</v>
+        <v>-30.08185893755007</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1747085256852702</v>
+        <v>0.1791526329272959</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.008809579451418</v>
+        <v>-5.983699640182943</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.052860751303356</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.603640639925</v>
+        <v>-30.63295268059559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2396443148916345</v>
+        <v>0.2421328193868942</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.276419148325742</v>
+        <v>-6.253274589817766</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.2058970971761299</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.92492661519118</v>
+        <v>-30.95529468134502</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5245805241023046</v>
+        <v>0.5267756881855494</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.583419445526799</v>
+        <v>-6.556681466971641</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4889034786692796</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.12047222284718</v>
+        <v>-31.1550179453688</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7100303325781224</v>
+        <v>0.7139170930373198</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.844829753693874</v>
+        <v>-6.819299359834845</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.029667133487542</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.40945408524022</v>
+        <v>-31.44690387784079</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9539966642440453</v>
+        <v>0.9573016328860797</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.912454496677042</v>
+        <v>-6.883355127805164</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.409139877330219</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.32641185910224</v>
+        <v>-31.36194027200411</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999532874202491</v>
+        <v>0.9984377366643021</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.08511466318901</v>
+        <v>-7.060381177449287</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.633094374816588</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.42061568791739</v>
+        <v>-31.45811192608319</v>
       </c>
       <c r="F27" t="n">
-        <v>1.237617730607515</v>
+        <v>1.238629755028967</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.337851873174178</v>
+        <v>-7.315269550455898</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.715756126532056</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.245601464599</v>
+        <v>-31.28269924870515</v>
       </c>
       <c r="F28" t="n">
-        <v>1.39326415322262</v>
+        <v>1.396134000253499</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.529232046979564</v>
+        <v>-7.504967905899065</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.668819225038371</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.04893871887391</v>
+        <v>-31.08568204998221</v>
       </c>
       <c r="F29" t="n">
-        <v>1.4119157144199</v>
+        <v>1.415631359638755</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.838222169975455</v>
+        <v>-7.812530438889818</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.511997850360234</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.93699268413873</v>
+        <v>-30.9772194326397</v>
       </c>
       <c r="F30" t="n">
-        <v>1.542691759103008</v>
+        <v>1.54627051212959</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.888065594983654</v>
+        <v>-7.860168921801036</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.266896969867502</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.65827529166277</v>
+        <v>-30.69638510019038</v>
       </c>
       <c r="F31" t="n">
-        <v>1.443963154432528</v>
+        <v>1.447546796465976</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.823095582729221</v>
+        <v>-7.796137598865052</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9534525050483508</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.24295415831835</v>
+        <v>-30.28434693495709</v>
       </c>
       <c r="F32" t="n">
-        <v>1.428284109410331</v>
+        <v>1.430929062125332</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.82374582064252</v>
+        <v>-7.793565981253054</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5945197239653681</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.7602453988238</v>
+        <v>-29.79757052174926</v>
       </c>
       <c r="F33" t="n">
-        <v>1.362507411022858</v>
+        <v>1.366697289907804</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.065634324390004</v>
+        <v>-8.039854591180761</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2074886529967543</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.19258770051317</v>
+        <v>-29.22829945117255</v>
       </c>
       <c r="F34" t="n">
-        <v>1.365680376479485</v>
+        <v>1.369576914952417</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.081156921192459</v>
+        <v>-8.053744259689667</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.1924058138854673</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.69982714290025</v>
+        <v>-28.7396065472729</v>
       </c>
       <c r="F35" t="n">
-        <v>1.384581277026979</v>
+        <v>1.387548904195196</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.049564158818455</v>
+        <v>-8.022992406496773</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.5904323050323679</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.06811612112273</v>
+        <v>-28.10686394504647</v>
       </c>
       <c r="F36" t="n">
-        <v>1.313089329612081</v>
+        <v>1.315216047599189</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.872679890373472</v>
+        <v>-7.84488588633506</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.9801132857712493</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.43570841586669</v>
+        <v>-27.47026880540891</v>
       </c>
       <c r="F37" t="n">
-        <v>1.401722135102382</v>
+        <v>1.403922188192494</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.769414287330495</v>
+        <v>-7.746259950808785</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.355013299677705</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.84940648986908</v>
+        <v>-26.88450711467009</v>
       </c>
       <c r="F38" t="n">
-        <v>1.232024706751764</v>
+        <v>1.235183005187792</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.684575351168919</v>
+        <v>-7.665356665175077</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.707039927681289</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.08413268949431</v>
+        <v>-26.11685481245458</v>
       </c>
       <c r="F39" t="n">
-        <v>1.318794800625771</v>
+        <v>1.321297972141632</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.595047857421973</v>
+        <v>-7.575506496974914</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.035500367162093</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.46950141320637</v>
+        <v>-25.49691407470916</v>
       </c>
       <c r="F40" t="n">
-        <v>1.315436052908201</v>
+        <v>1.317318320551963</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.238199246205851</v>
+        <v>-7.224021126291797</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.337867046081208</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.89677870378162</v>
+        <v>-24.92298866959515</v>
       </c>
       <c r="F41" t="n">
-        <v>1.373884130002169</v>
+        <v>1.375825065728334</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.22716964671409</v>
+        <v>-7.211285263403484</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.607788415683616</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.22404646988725</v>
+        <v>-24.24870662052397</v>
       </c>
       <c r="F42" t="n">
-        <v>1.367841317514662</v>
+        <v>1.369987591529237</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.960836108632032</v>
+        <v>-6.946560208580641</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.847538611136272</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.54445495935861</v>
+        <v>-23.56835242492409</v>
       </c>
       <c r="F43" t="n">
-        <v>1.323879367767363</v>
+        <v>1.324798501058343</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.880011047108194</v>
+        <v>-6.870516595772645</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.059537911549297</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.86294695813813</v>
+        <v>-22.88355412208218</v>
       </c>
       <c r="F44" t="n">
-        <v>1.43613096543173</v>
+        <v>1.43705009872271</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.802838073713941</v>
+        <v>-6.791955144428189</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.244334527187206</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.03402562186644</v>
+        <v>-22.05406077200706</v>
       </c>
       <c r="F45" t="n">
-        <v>1.479080890757578</v>
+        <v>1.479843575828816</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.636118050545275</v>
+        <v>-6.627347172226029</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.412888206964755</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.51363973095201</v>
+        <v>-21.53250640845143</v>
       </c>
       <c r="F46" t="n">
-        <v>1.463411623749115</v>
+        <v>1.465748569031501</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.517109845390832</v>
+        <v>-6.511815050953962</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.576655340984187</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.82424087264833</v>
+        <v>-20.84151373390914</v>
       </c>
       <c r="F47" t="n">
-        <v>1.545630052230024</v>
+        <v>1.549619481833427</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.495383098874261</v>
+        <v>-6.488323372958436</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.742057786588641</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.17347983561389</v>
+        <v>-20.19173538725494</v>
       </c>
       <c r="F48" t="n">
-        <v>1.591933836266575</v>
+        <v>1.595644592478564</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.45709728609945</v>
+        <v>-6.453362084853127</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.922941634303557</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.41563977018027</v>
+        <v>-19.4300574514308</v>
       </c>
       <c r="F49" t="n">
-        <v>1.741239216975291</v>
+        <v>1.743155707667122</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.206447682046455</v>
+        <v>-6.2046974175881</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.132187209496673</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.00647389648129</v>
+        <v>-19.02213338547601</v>
       </c>
       <c r="F50" t="n">
-        <v>1.725017492190867</v>
+        <v>1.72887980761573</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.216998158865257</v>
+        <v>-6.218367080787993</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.374810318847358</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43194714352264</v>
+        <v>-18.44708350878261</v>
       </c>
       <c r="F51" t="n">
-        <v>1.704146321876007</v>
+        <v>1.709299335113736</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.285708261372879</v>
+        <v>-6.284422452566881</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.660842659631099</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.97642859571844</v>
+        <v>-17.98975113943079</v>
       </c>
       <c r="F52" t="n">
-        <v>1.714022115747175</v>
+        <v>1.715043918182361</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.279332996418423</v>
+        <v>-6.280956146698238</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.998411555416379</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.57517313513013</v>
+        <v>-17.58687741756953</v>
       </c>
       <c r="F53" t="n">
-        <v>1.80344205134305</v>
+        <v>1.803398050281248</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.187908568007114</v>
+        <v>-6.188549027906679</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.386292397012228</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.94742465341825</v>
+        <v>-16.95802890931259</v>
       </c>
       <c r="F54" t="n">
-        <v>1.853921047243947</v>
+        <v>1.854717955363254</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.190553520722114</v>
+        <v>-6.192357564256006</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.825685990211991</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.74697048286787</v>
+        <v>-16.75628892995621</v>
       </c>
       <c r="F55" t="n">
-        <v>1.848352468422531</v>
+        <v>1.848376913456865</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.405850716120447</v>
+        <v>-6.4121379789513</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.315115103348843</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.20211511258454</v>
+        <v>-16.21012330583254</v>
       </c>
       <c r="F56" t="n">
-        <v>1.891321949775846</v>
+        <v>1.88897033747286</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.317902371591515</v>
+        <v>-6.319730860159741</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.842638128524992</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.10819240166423</v>
+        <v>-16.11606370271997</v>
       </c>
       <c r="F57" t="n">
-        <v>1.931988708894845</v>
+        <v>1.929236198028772</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.485683309250302</v>
+        <v>-6.49305593160561</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.395647763303987</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.90160741650274</v>
+        <v>-15.90693154498081</v>
       </c>
       <c r="F58" t="n">
-        <v>1.829906245513661</v>
+        <v>1.823384310353196</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.648184119492821</v>
+        <v>-6.653537582012093</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.960347212866652</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65197472587807</v>
+        <v>-15.65621838383855</v>
       </c>
       <c r="F59" t="n">
-        <v>1.877906514933031</v>
+        <v>1.874518433174259</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.41995061192463</v>
+        <v>-6.422302224227616</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.516250730599239</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43065916302656</v>
+        <v>-15.43486859793897</v>
       </c>
       <c r="F60" t="n">
-        <v>1.937674623881067</v>
+        <v>1.936031917573783</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.431053546519395</v>
+        <v>-6.435350983555413</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.043948276674435</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.30158938174</v>
+        <v>-15.30120315019752</v>
       </c>
       <c r="F61" t="n">
-        <v>1.889649909427361</v>
+        <v>1.885988043284042</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.284642457875893</v>
+        <v>-6.283987330955726</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.526928316828238</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27227978557285</v>
+        <v>-15.27380515571533</v>
       </c>
       <c r="F62" t="n">
-        <v>1.883181753342433</v>
+        <v>1.880116346036877</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.363668364872706</v>
+        <v>-6.364162154566264</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.948273586559685</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22489064201184</v>
+        <v>-15.22719336424616</v>
       </c>
       <c r="F63" t="n">
-        <v>1.868064944109932</v>
+        <v>1.865669330745143</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.394557110257875</v>
+        <v>-6.395280683274177</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.29208802358799</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.27257801499173</v>
+        <v>-15.27618610205952</v>
       </c>
       <c r="F64" t="n">
-        <v>1.719810699877603</v>
+        <v>1.715131920305965</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.388807638182382</v>
+        <v>-6.388220957358352</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.54757697775166</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.33568531562987</v>
+        <v>-15.33675111912686</v>
       </c>
       <c r="F65" t="n">
-        <v>1.705564133867413</v>
+        <v>1.703070740365286</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.489985635293187</v>
+        <v>-6.490078526423659</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.70840549365981</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.34690558638944</v>
+        <v>-15.34756560231647</v>
       </c>
       <c r="F66" t="n">
-        <v>1.795472970149979</v>
+        <v>1.795116072648694</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.443530292043762</v>
+        <v>-6.443716074304704</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.76810493056391</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.23770472901003</v>
+        <v>-15.23641403119716</v>
       </c>
       <c r="F67" t="n">
-        <v>1.616818881219172</v>
+        <v>1.617420229063803</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.196879895607903</v>
+        <v>-6.19599498536499</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.72566323232179</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.37346267169052</v>
+        <v>-15.37208397175405</v>
       </c>
       <c r="F68" t="n">
-        <v>1.591264042325808</v>
+        <v>1.587367503852877</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.317027239362337</v>
+        <v>-6.316680119874786</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.58792167578651</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.28949886775812</v>
+        <v>-15.28750415295642</v>
       </c>
       <c r="F69" t="n">
-        <v>1.543376220064376</v>
+        <v>1.542095300265244</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.200155530208735</v>
+        <v>-6.197075455882579</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.35921621247464</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.34282815466243</v>
+        <v>-15.34099966609421</v>
       </c>
       <c r="F70" t="n">
-        <v>1.483671668205611</v>
+        <v>1.480596482886321</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.13257478828737</v>
+        <v>-6.131171643316566</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.04620229500286</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.3757262818699</v>
+        <v>-15.37198619161671</v>
       </c>
       <c r="F71" t="n">
-        <v>1.377281989774675</v>
+        <v>1.373458786404747</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.139702960299331</v>
+        <v>-6.138382928445265</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.664373004661588</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.49083305954455</v>
+        <v>-15.4885645603583</v>
       </c>
       <c r="F72" t="n">
-        <v>1.298275638805329</v>
+        <v>1.294956003142694</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.998992453662653</v>
+        <v>-5.999823584830028</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.222936624089186</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.60667318824923</v>
+        <v>-15.60262509056343</v>
       </c>
       <c r="F73" t="n">
-        <v>1.226109008442797</v>
+        <v>1.225492993577566</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.148698732934455</v>
+        <v>-6.150585889585084</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.728874245487317</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.71130771321495</v>
+        <v>-15.70956233776346</v>
       </c>
       <c r="F74" t="n">
-        <v>1.087872339280777</v>
+        <v>1.08661586451598</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.061410404332555</v>
+        <v>-6.064006466978888</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.19774433143596</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.97816437503177</v>
+        <v>-15.9742873925863</v>
       </c>
       <c r="F75" t="n">
-        <v>1.041011208461398</v>
+        <v>1.036674659370444</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.100542015295343</v>
+        <v>-6.102918072632664</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.637027824226649</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.0090286753826</v>
+        <v>-16.0024969622084</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8125430285635951</v>
+        <v>0.8105434247550268</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.24192231587279</v>
+        <v>-6.240040048229027</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.049429371878261</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.05323507547324</v>
+        <v>-16.04861985299087</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6703853758943091</v>
+        <v>0.6683026589690033</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.186969878688665</v>
+        <v>-6.183019561140198</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.447845016520567</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.178476764383</v>
+        <v>-16.17653582865684</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6895258377782811</v>
+        <v>0.6876533481482527</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.16322397233606</v>
+        <v>-6.157508723308636</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.838987125869893</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.31482627689439</v>
+        <v>-16.31015238632962</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4060905536757539</v>
+        <v>0.4027366949650503</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.182154206924754</v>
+        <v>-6.178375004616629</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.224132771138201</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.77351290114835</v>
+        <v>-16.77240798559643</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3827944359549042</v>
+        <v>0.380565048823591</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.153915303261454</v>
+        <v>-6.14976942543831</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.614448113797074</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.22275396413544</v>
+        <v>-17.22423533321611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2251484095312317</v>
+        <v>0.2203962948565904</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.26306238156533</v>
+        <v>-6.258750277508711</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.01649357348476</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.65305012551322</v>
+        <v>-17.6546194967175</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08122120578399353</v>
+        <v>-0.08555286586808017</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.314758740176089</v>
+        <v>-6.310392857043934</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.431885591469941</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.1220183312083</v>
+        <v>-18.12504462645892</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09529176754697474</v>
+        <v>-0.09878740745681894</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.373392599530999</v>
+        <v>-6.368366700471811</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.872523197911149</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.90139936089755</v>
+        <v>-18.90252383247694</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1963622065067075</v>
+        <v>-0.1977262394225767</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.413819797313519</v>
+        <v>-6.405914273209718</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.348557548746403</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.59202047091796</v>
+        <v>-19.59258759571452</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3535877783398253</v>
+        <v>-0.3553380427981808</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.514269332401153</v>
+        <v>-6.508006514604635</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.866900997644242</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23496398597221</v>
+        <v>-20.23689025467777</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5137369762793582</v>
+        <v>-0.5166019343033704</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.772228001720187</v>
+        <v>-6.76650297467903</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.44201738588342</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98901996009083</v>
+        <v>-20.98916663029684</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6123091327300975</v>
+        <v>-0.6161958931892948</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.103081763424922</v>
+        <v>-7.099331895157999</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.085685593187047</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83399190590661</v>
+        <v>-21.83537060584308</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7337471742973978</v>
+        <v>-0.7353654355703466</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.412194111592487</v>
+        <v>-7.404738376120442</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.8071496176578351</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81664317410158</v>
+        <v>-22.81833477047753</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9374623124280099</v>
+        <v>-0.9424148763841947</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.488917296354983</v>
+        <v>-7.481290445642596</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.618973975339134</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86076881464114</v>
+        <v>-23.86419111944798</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.185017175134248</v>
+        <v>-1.189255944087864</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.857792864463716</v>
+        <v>-7.847995294702418</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5280409095380723</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06718992713481</v>
+        <v>-25.07117935673821</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.111124725347696</v>
+        <v>-1.114527474127069</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.226546207400776</v>
+        <v>-8.21842556699483</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.5403032213462522</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.33632233071039</v>
+        <v>-26.33811659623055</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.323899193202701</v>
+        <v>-1.325561455537452</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.502682204250998</v>
+        <v>-8.499387013622698</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.6606655184714335</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57560979186689</v>
+        <v>-27.58187994317371</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.617000043881119</v>
+        <v>-1.619131650875094</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.800442278473588</v>
+        <v>-8.799317806894196</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.8855280259615053</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.07365283046174</v>
+        <v>-29.07794293398745</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.862985535383078</v>
+        <v>-1.862858421204538</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.136409941361116</v>
+        <v>-9.13492857228044</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.209775976657335</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.71886475376445</v>
+        <v>-30.71962499433226</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.126977239175885</v>
+        <v>-2.124747852044571</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.397981586754799</v>
+        <v>-9.39871004877797</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.630689077027588</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.54381857002586</v>
+        <v>-32.54789355724944</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.156687733906126</v>
+        <v>-2.150791591624627</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.745174409408763</v>
+        <v>-9.747017564997591</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.124487158899108</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.26842307584041</v>
+        <v>-34.27047156971765</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.528570041238012</v>
+        <v>-2.520033835248379</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.1055382165622</v>
+        <v>-10.10809516715359</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.69355401516122</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.25688972676579</v>
+        <v>-36.25727595830828</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.924364481155979</v>
+        <v>-2.914762471669358</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.51207380456678</v>
+        <v>-10.51896730424913</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.300255817232513</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.29371598911526</v>
+        <v>-38.29044768802473</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.203301878940944</v>
+        <v>-3.193597200310118</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.83704120200375</v>
+        <v>-10.84565074309638</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.961892123938187</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.48767004316051</v>
+        <v>-40.48630601024464</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.566315527816246</v>
+        <v>-3.556825965487564</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.04188081171375</v>
+        <v>-11.0449315519987</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.606602284772809</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39261778977838</v>
+        <v>-42.39372270533031</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.987816365840451</v>
+        <v>-3.980482855540079</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28387198460544</v>
+        <v>-11.28718673126121</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.320307568699369</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.66954562386548</v>
+        <v>-44.66748001846421</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.238597973078853</v>
+        <v>-4.22991998589008</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.43528452727379</v>
+        <v>-11.4360667683725</v>
       </c>
     </row>
   </sheetData>
